--- a/published-data/fonds-solidarite/fds-2020-07-26/fonds-solidarite-volet-1-regional-classe-effectif-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2020-07-26/fonds-solidarite-volet-1-regional-classe-effectif-latest.xlsx
@@ -66,6 +66,74 @@
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -420,10 +488,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>36524</v>
+        <v>36399</v>
       </c>
       <c r="D2" t="n">
-        <v>52859587</v>
+        <v>52682575</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -458,10 +526,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>88578</v>
+        <v>88352</v>
       </c>
       <c r="D3" t="n">
-        <v>129943082</v>
+        <v>129617155</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -496,10 +564,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>30354</v>
+        <v>30275</v>
       </c>
       <c r="D4" t="n">
-        <v>44979848</v>
+        <v>44864033</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -534,10 +602,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>8410</v>
+        <v>8393</v>
       </c>
       <c r="D5" t="n">
-        <v>12503176</v>
+        <v>12477676</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -572,10 +640,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1859</v>
+        <v>1845</v>
       </c>
       <c r="D6" t="n">
-        <v>2764025</v>
+        <v>2743547</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -610,10 +678,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D7" t="n">
-        <v>203593</v>
+        <v>202093</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -762,10 +830,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>39951</v>
+        <v>39783</v>
       </c>
       <c r="D11" t="n">
-        <v>54283306</v>
+        <v>54060106</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -800,10 +868,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>9368</v>
+        <v>9343</v>
       </c>
       <c r="D12" t="n">
-        <v>13552253</v>
+        <v>13517559</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -838,10 +906,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>25372</v>
+        <v>25310</v>
       </c>
       <c r="D13" t="n">
-        <v>37229074</v>
+        <v>37138633</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -876,10 +944,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>8128</v>
+        <v>8107</v>
       </c>
       <c r="D14" t="n">
-        <v>12064817</v>
+        <v>12036168</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -914,10 +982,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2090</v>
+        <v>2084</v>
       </c>
       <c r="D15" t="n">
-        <v>3110150</v>
+        <v>3101150</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -952,10 +1020,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="D16" t="n">
-        <v>580123</v>
+        <v>574123</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1066,10 +1134,10 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>9872</v>
+        <v>9842</v>
       </c>
       <c r="D19" t="n">
-        <v>13109585</v>
+        <v>13070703</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -1104,10 +1172,10 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>13090</v>
+        <v>13049</v>
       </c>
       <c r="D20" t="n">
-        <v>18906844</v>
+        <v>18849366</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1142,10 +1210,10 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>31050</v>
+        <v>30972</v>
       </c>
       <c r="D21" t="n">
-        <v>45591790</v>
+        <v>45481823</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1180,10 +1248,10 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>10053</v>
+        <v>10030</v>
       </c>
       <c r="D22" t="n">
-        <v>14950497</v>
+        <v>14916231</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1218,10 +1286,10 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2562</v>
+        <v>2558</v>
       </c>
       <c r="D23" t="n">
-        <v>3813263</v>
+        <v>3807263</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1256,10 +1324,10 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="D24" t="n">
-        <v>701839</v>
+        <v>697592</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1294,10 +1362,10 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D25" t="n">
-        <v>51953</v>
+        <v>50453</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1332,10 +1400,10 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>11395</v>
+        <v>11353</v>
       </c>
       <c r="D26" t="n">
-        <v>15249066</v>
+        <v>15195673</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1370,10 +1438,10 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>7431</v>
+        <v>7407</v>
       </c>
       <c r="D27" t="n">
-        <v>10764358</v>
+        <v>10731837</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1408,10 +1476,10 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>22047</v>
+        <v>21974</v>
       </c>
       <c r="D28" t="n">
-        <v>32362408</v>
+        <v>32257013</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1446,10 +1514,10 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>7624</v>
+        <v>7610</v>
       </c>
       <c r="D29" t="n">
-        <v>11345095</v>
+        <v>11325304</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1484,10 +1552,10 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>1920</v>
+        <v>1910</v>
       </c>
       <c r="D30" t="n">
-        <v>2865544</v>
+        <v>2850544</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1522,10 +1590,10 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="D31" t="n">
-        <v>517915</v>
+        <v>508915</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1598,10 +1666,10 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>8112</v>
+        <v>8072</v>
       </c>
       <c r="D33" t="n">
-        <v>10724758</v>
+        <v>10676850</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -1636,10 +1704,10 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3089</v>
+        <v>3066</v>
       </c>
       <c r="D34" t="n">
-        <v>4455809</v>
+        <v>4421459</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1674,10 +1742,10 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>7485</v>
+        <v>7460</v>
       </c>
       <c r="D35" t="n">
-        <v>10937337</v>
+        <v>10901189</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1712,10 +1780,10 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3018</v>
+        <v>3008</v>
       </c>
       <c r="D36" t="n">
-        <v>4471288</v>
+        <v>4456288</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1750,10 +1818,10 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="D37" t="n">
-        <v>1180763</v>
+        <v>1179263</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1788,10 +1856,10 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D38" t="n">
-        <v>215732</v>
+        <v>214232</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -1864,10 +1932,10 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2316</v>
+        <v>2305</v>
       </c>
       <c r="D40" t="n">
-        <v>3127817</v>
+        <v>3112387</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -1902,10 +1970,10 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>16773</v>
+        <v>16718</v>
       </c>
       <c r="D41" t="n">
-        <v>24273210</v>
+        <v>24190852</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -1940,10 +2008,10 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>49844</v>
+        <v>49734</v>
       </c>
       <c r="D42" t="n">
-        <v>73104465</v>
+        <v>72943828</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -1978,10 +2046,10 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>18578</v>
+        <v>18548</v>
       </c>
       <c r="D43" t="n">
-        <v>27597353</v>
+        <v>27552530</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -2016,10 +2084,10 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5429</v>
+        <v>5420</v>
       </c>
       <c r="D44" t="n">
-        <v>8085222</v>
+        <v>8072767</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -2054,10 +2122,10 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>1107</v>
+        <v>1104</v>
       </c>
       <c r="D45" t="n">
-        <v>1651292</v>
+        <v>1646792</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -2206,10 +2274,10 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>16232</v>
+        <v>16176</v>
       </c>
       <c r="D49" t="n">
-        <v>21643474</v>
+        <v>21572625</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -2244,10 +2312,10 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>1889</v>
+        <v>1864</v>
       </c>
       <c r="D50" t="n">
-        <v>2740705</v>
+        <v>2705440</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -2282,10 +2350,10 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>6511</v>
+        <v>6450</v>
       </c>
       <c r="D51" t="n">
-        <v>9577473</v>
+        <v>9489228</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -2320,10 +2388,10 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2253</v>
+        <v>2232</v>
       </c>
       <c r="D52" t="n">
-        <v>3364690</v>
+        <v>3333324</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -2358,10 +2426,10 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>734</v>
+        <v>726</v>
       </c>
       <c r="D53" t="n">
-        <v>1096305</v>
+        <v>1084305</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -2396,10 +2464,10 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D54" t="n">
-        <v>253333</v>
+        <v>251833</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -2472,10 +2540,10 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>6191</v>
+        <v>6102</v>
       </c>
       <c r="D56" t="n">
-        <v>8521785</v>
+        <v>8408761</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -2510,10 +2578,10 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>842</v>
+        <v>810</v>
       </c>
       <c r="D57" t="n">
-        <v>1233743</v>
+        <v>1186584</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -2548,10 +2616,10 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2036</v>
+        <v>2018</v>
       </c>
       <c r="D58" t="n">
-        <v>3021826</v>
+        <v>2994826</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -2586,10 +2654,10 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>833</v>
+        <v>823</v>
       </c>
       <c r="D59" t="n">
-        <v>1240337</v>
+        <v>1226145</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -2624,10 +2692,10 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="D60" t="n">
-        <v>436258</v>
+        <v>421258</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -2662,10 +2730,10 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D61" t="n">
-        <v>109500</v>
+        <v>103500</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -2738,10 +2806,10 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>1209</v>
+        <v>1190</v>
       </c>
       <c r="D63" t="n">
-        <v>1707230</v>
+        <v>1682894</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -2776,10 +2844,10 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>14977</v>
+        <v>14924</v>
       </c>
       <c r="D64" t="n">
-        <v>21640831</v>
+        <v>21566605</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -2814,10 +2882,10 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>43774</v>
+        <v>43679</v>
       </c>
       <c r="D65" t="n">
-        <v>64090776</v>
+        <v>63952099</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -2852,10 +2920,10 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>15386</v>
+        <v>15355</v>
       </c>
       <c r="D66" t="n">
-        <v>22875406</v>
+        <v>22828906</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -2890,10 +2958,10 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4460</v>
+        <v>4445</v>
       </c>
       <c r="D67" t="n">
-        <v>6644060</v>
+        <v>6621560</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -2928,10 +2996,10 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>893</v>
+        <v>886</v>
       </c>
       <c r="D68" t="n">
-        <v>1329096</v>
+        <v>1318596</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -3042,10 +3110,10 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>14730</v>
+        <v>14679</v>
       </c>
       <c r="D71" t="n">
-        <v>19447554</v>
+        <v>19387943</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -3080,10 +3148,10 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>49204</v>
+        <v>48892</v>
       </c>
       <c r="D72" t="n">
-        <v>71635217</v>
+        <v>71184838</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -3118,10 +3186,10 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>140818</v>
+        <v>140072</v>
       </c>
       <c r="D73" t="n">
-        <v>207545311</v>
+        <v>206454190</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -3156,10 +3224,10 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>61480</v>
+        <v>61193</v>
       </c>
       <c r="D74" t="n">
-        <v>91637667</v>
+        <v>91211890</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -3194,10 +3262,10 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>19564</v>
+        <v>19467</v>
       </c>
       <c r="D75" t="n">
-        <v>29233959</v>
+        <v>29090019</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -3232,10 +3300,10 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4493</v>
+        <v>4459</v>
       </c>
       <c r="D76" t="n">
-        <v>6713472</v>
+        <v>6662472</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -3498,10 +3566,10 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>48875</v>
+        <v>48504</v>
       </c>
       <c r="D83" t="n">
-        <v>66659810</v>
+        <v>66201533</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -3536,10 +3604,10 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4415</v>
+        <v>4389</v>
       </c>
       <c r="D84" t="n">
-        <v>6398185</v>
+        <v>6362228</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -3574,10 +3642,10 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>11158</v>
+        <v>11120</v>
       </c>
       <c r="D85" t="n">
-        <v>16398798</v>
+        <v>16342446</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -3612,10 +3680,10 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3779</v>
+        <v>3772</v>
       </c>
       <c r="D86" t="n">
-        <v>5631915</v>
+        <v>5621415</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -3650,10 +3718,10 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>1316</v>
+        <v>1312</v>
       </c>
       <c r="D87" t="n">
-        <v>1966489</v>
+        <v>1960489</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -3802,10 +3870,10 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5151</v>
+        <v>5107</v>
       </c>
       <c r="D91" t="n">
-        <v>6933713</v>
+        <v>6878553</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -3840,10 +3908,10 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>1495</v>
+        <v>1487</v>
       </c>
       <c r="D92" t="n">
-        <v>2161041</v>
+        <v>2149412</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -3878,10 +3946,10 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4917</v>
+        <v>4885</v>
       </c>
       <c r="D93" t="n">
-        <v>7243114</v>
+        <v>7195584</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -3916,10 +3984,10 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>1873</v>
+        <v>1864</v>
       </c>
       <c r="D94" t="n">
-        <v>2790999</v>
+        <v>2777499</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -3954,10 +4022,10 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D95" t="n">
-        <v>988960</v>
+        <v>987460</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -4106,10 +4174,10 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3338</v>
+        <v>3302</v>
       </c>
       <c r="D99" t="n">
-        <v>4432876</v>
+        <v>4383021</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -4144,10 +4212,10 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D100" t="n">
-        <v>844464</v>
+        <v>842964</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -4182,10 +4250,10 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="D101" t="n">
-        <v>487130</v>
+        <v>479630</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -4220,10 +4288,10 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D102" t="n">
-        <v>171000</v>
+        <v>169500</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
@@ -4334,10 +4402,10 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>10478</v>
+        <v>10451</v>
       </c>
       <c r="D105" t="n">
-        <v>15222890</v>
+        <v>15182390</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
@@ -4372,10 +4440,10 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>28640</v>
+        <v>28575</v>
       </c>
       <c r="D106" t="n">
-        <v>42087346</v>
+        <v>41993886</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -4410,10 +4478,10 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>9592</v>
+        <v>9573</v>
       </c>
       <c r="D107" t="n">
-        <v>14264257</v>
+        <v>14236157</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
@@ -4448,10 +4516,10 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>2622</v>
+        <v>2612</v>
       </c>
       <c r="D108" t="n">
-        <v>3909307</v>
+        <v>3894307</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
@@ -4486,10 +4554,10 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="D109" t="n">
-        <v>694982</v>
+        <v>690482</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
@@ -4600,10 +4668,10 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>9550</v>
+        <v>9513</v>
       </c>
       <c r="D112" t="n">
-        <v>12640360</v>
+        <v>12592630</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
@@ -4638,10 +4706,10 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>29581</v>
+        <v>29479</v>
       </c>
       <c r="D113" t="n">
-        <v>42688026</v>
+        <v>42543771</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
@@ -4676,10 +4744,10 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>64670</v>
+        <v>64538</v>
       </c>
       <c r="D114" t="n">
-        <v>94676689</v>
+        <v>94491545</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
@@ -4714,10 +4782,10 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>20917</v>
+        <v>20884</v>
       </c>
       <c r="D115" t="n">
-        <v>31097479</v>
+        <v>31047979</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
@@ -4752,10 +4820,10 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>5889</v>
+        <v>5872</v>
       </c>
       <c r="D116" t="n">
-        <v>8774780</v>
+        <v>8749280</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
@@ -4790,10 +4858,10 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>1070</v>
+        <v>1067</v>
       </c>
       <c r="D117" t="n">
-        <v>1599506</v>
+        <v>1595006</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
@@ -4828,10 +4896,10 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D118" t="n">
-        <v>100920</v>
+        <v>99420</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
@@ -4942,10 +5010,10 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>25064</v>
+        <v>24990</v>
       </c>
       <c r="D121" t="n">
-        <v>33512898</v>
+        <v>33422976</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -4980,10 +5048,10 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>34698</v>
+        <v>34569</v>
       </c>
       <c r="D122" t="n">
-        <v>50113192</v>
+        <v>49930096</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
@@ -5018,10 +5086,10 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>74582</v>
+        <v>74367</v>
       </c>
       <c r="D123" t="n">
-        <v>109134392</v>
+        <v>108823337</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
@@ -5056,10 +5124,10 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>23211</v>
+        <v>23146</v>
       </c>
       <c r="D124" t="n">
-        <v>34459905</v>
+        <v>34364029</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
@@ -5094,10 +5162,10 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>6177</v>
+        <v>6166</v>
       </c>
       <c r="D125" t="n">
-        <v>9180443</v>
+        <v>9164367</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
@@ -5132,10 +5200,10 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="D126" t="n">
-        <v>1713911</v>
+        <v>1710911</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
@@ -5284,10 +5352,10 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>30600</v>
+        <v>30480</v>
       </c>
       <c r="D130" t="n">
-        <v>40699591</v>
+        <v>40548885</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
@@ -5322,10 +5390,10 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>12904</v>
+        <v>12866</v>
       </c>
       <c r="D131" t="n">
-        <v>18688016</v>
+        <v>18631818</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
@@ -5360,10 +5428,10 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>31662</v>
+        <v>31590</v>
       </c>
       <c r="D132" t="n">
-        <v>46528380</v>
+        <v>46421951</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
@@ -5398,10 +5466,10 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>11265</v>
+        <v>11243</v>
       </c>
       <c r="D133" t="n">
-        <v>16739059</v>
+        <v>16706059</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
@@ -5436,10 +5504,10 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>2889</v>
+        <v>2880</v>
       </c>
       <c r="D134" t="n">
-        <v>4308081</v>
+        <v>4294581</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
@@ -5474,10 +5542,10 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="D135" t="n">
-        <v>692990</v>
+        <v>688490</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
@@ -5588,10 +5656,10 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>10546</v>
+        <v>10515</v>
       </c>
       <c r="D138" t="n">
-        <v>14079301</v>
+        <v>14044739</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
@@ -5626,10 +5694,10 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>33941</v>
+        <v>33807</v>
       </c>
       <c r="D139" t="n">
-        <v>49042135</v>
+        <v>48851883</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
@@ -5664,10 +5732,10 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>79048</v>
+        <v>78820</v>
       </c>
       <c r="D140" t="n">
-        <v>115852890</v>
+        <v>115526341</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
@@ -5702,10 +5770,10 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>23735</v>
+        <v>23685</v>
       </c>
       <c r="D141" t="n">
-        <v>35285365</v>
+        <v>35211145</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
@@ -5740,10 +5808,10 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>6194</v>
+        <v>6177</v>
       </c>
       <c r="D142" t="n">
-        <v>9245586</v>
+        <v>9220086</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
@@ -5778,10 +5846,10 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>1365</v>
+        <v>1362</v>
       </c>
       <c r="D143" t="n">
-        <v>2029785</v>
+        <v>2026192</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
@@ -5892,10 +5960,10 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>28316</v>
+        <v>28222</v>
       </c>
       <c r="D146" t="n">
-        <v>38283212</v>
+        <v>38171616</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
